--- a/2021/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
+++ b/2021/Symphony/Others/BL120 & L140/Bl120 & L140.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>L140</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>bl99</t>
+  </si>
+  <si>
+    <t>T92_skd</t>
+  </si>
+  <si>
+    <t>b62</t>
   </si>
 </sst>
 </file>
@@ -418,12 +424,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,10 +442,10 @@
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="21" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,8 +512,14 @@
       <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>350053612055140</v>
       </c>
@@ -568,8 +580,14 @@
       <c r="V2" s="2">
         <v>359833621701466</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W2" s="1">
+        <v>355642411102429</v>
+      </c>
+      <c r="X2" s="1">
+        <v>354473221310502</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>350053612061148</v>
       </c>
@@ -606,8 +624,11 @@
       <c r="U3" s="1">
         <v>355066111996965</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="1">
+        <v>354473221306484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>350053612306162</v>
       </c>
@@ -633,8 +654,11 @@
       <c r="U4" s="1">
         <v>355066111586204</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="1">
+        <v>354473221306021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>354340119125948</v>
       </c>
@@ -652,7 +676,7 @@
         <v>356982501812688</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>354340115335541</v>
       </c>
@@ -670,7 +694,7 @@
         <v>356982500169668</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>354340118943085</v>
       </c>
@@ -682,7 +706,7 @@
         <v>352611791767641</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>354340118927344</v>
       </c>
@@ -691,43 +715,49 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="2">
         <v>359546981700767</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="2">
         <v>359546981700965</v>
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <v>359546981701161</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <v>359546981700924</v>
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
+    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="2">
+        <v>359546981427064</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
+    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <v>359546981418246</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
+    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <v>359546981419822</v>
+      </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
